--- a/assn04/Molina_Pineda_assn04.xlsx
+++ b/assn04/Molina_Pineda_assn04.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JAMP/Desktop/bio_5153/assn04/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF92D5C3-07A9-4E44-8DA5-FF245E85EBEE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBCCAF7-BDEE-EE4F-A42F-5CE84E9B904D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -25,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="21">
   <si>
     <t>Query</t>
   </si>
@@ -76,6 +82,18 @@
   </si>
   <si>
     <t>plant mit genomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCBI nr database </t>
+  </si>
+  <si>
+    <t>56542837 (sequences)</t>
+  </si>
+  <si>
+    <t>3/-3</t>
+  </si>
+  <si>
+    <t>watermelon genome translated</t>
   </si>
 </sst>
 </file>
@@ -85,7 +103,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0E+00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -124,6 +142,12 @@
       <sz val="15"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF212121"/>
+      <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -218,7 +242,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -279,6 +303,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -663,7 +688,7 @@
   <dimension ref="A3:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,8 +696,8 @@
     <col min="1" max="1" width="10.83203125" style="1"/>
     <col min="2" max="2" width="19.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.5" style="2" bestFit="1" customWidth="1"/>
@@ -845,30 +870,58 @@
       <c r="B9" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="9"/>
+      <c r="C9" s="5">
+        <v>303</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="5">
+        <v>303</v>
+      </c>
+      <c r="G9" s="5">
+        <v>560</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1E-155</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="9"/>
+      <c r="C10" s="5">
+        <v>303</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="7">
+        <v>379236</v>
+      </c>
+      <c r="F10" s="5">
+        <v>549</v>
+      </c>
+      <c r="G10" s="5">
+        <v>254</v>
+      </c>
+      <c r="H10" s="6">
+        <v>4E-70</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="11" spans="1:9" ht="20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>7</v>
       </c>
